--- a/docs/output/data.xlsx
+++ b/docs/output/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第586回</t>
+  </si>
+  <si>
+    <t>2024年3月22日（令和6年3月22日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１高額医薬品（感染症治療薬）に対する対応について
+２市場拡大再算定に関する対応について
+３プログラム医療機器に係る評価療養等について
+４希少がん領域における体外診断用医薬品等の診療報酬上の取扱いについて
+５令和４年度DPC導入の影響評価に係る調査「退院患者調査」の結果報告について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第585回</t>
@@ -47,13 +68,6 @@
 ５先進医療会議及び患者申出療養評価会議からの報告について
 ６DPC対象病院の合併に係る報告について
 ７在宅自己注射について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -599,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -667,16 +681,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -696,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -716,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -736,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -756,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -776,7 +790,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -796,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -816,7 +830,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -836,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -856,7 +870,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -876,7 +890,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -896,7 +910,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -916,7 +930,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -936,12 +950,32 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/output/data.xlsx
+++ b/docs/output/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,29 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第587回</t>
+  </si>
+  <si>
+    <t>2024年4月10日（令和6年4月10日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１部会・小委員会に属する委員の指名等について
+２医薬品の新規薬価収載等について
+３最適使用推進ガイドラインについて
+４費用対効果評価の結果を踏まえた薬価の見直しについて
+５ＤＰＣにおける高額な新規の医薬品等への対応について
+６在宅自己注射について
+７令和６年度改定を踏まえたＤＰＣ/ＰＤＰＳの現況について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第586回</t>
@@ -45,13 +68,6 @@
 ３プログラム医療機器に係る評価療養等について
 ４希少がん領域における体外診断用医薬品等の診療報酬上の取扱いについて
 ５令和４年度DPC導入の影響評価に係る調査「退院患者調査」の結果報告について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -613,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -701,16 +717,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -730,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -750,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -770,7 +786,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -790,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -810,7 +826,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -830,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -850,7 +866,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -870,7 +886,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -890,7 +906,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -910,7 +926,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -930,7 +946,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -950,7 +966,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -970,12 +986,32 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/output/data.xlsx
+++ b/docs/output/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第588回</t>
+  </si>
+  <si>
+    <t>2024年4月24日（令和6年4月24日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１   臨床検査の保険適用ついて
+２費用対効果評価専門組織からの報告について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第587回</t>
@@ -47,13 +65,6 @@
 ５ＤＰＣにおける高額な新規の医薬品等への対応について
 ６在宅自己注射について
 ７令和６年度改定を踏まえたＤＰＣ/ＰＤＰＳの現況について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
 </t>
   </si>
   <si>
@@ -629,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -737,16 +748,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -766,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -786,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -806,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -826,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -846,7 +857,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -866,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -886,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -906,7 +917,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -926,7 +937,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -946,7 +957,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -966,7 +977,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -986,7 +997,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1006,12 +1017,32 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/output/data.xlsx
+++ b/docs/output/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>回数</t>
   </si>
@@ -34,21 +34,37 @@
     <t>開催案内</t>
   </si>
   <si>
+    <t>第589回</t>
+  </si>
+  <si>
+    <t>2024年5月15日（令和6年5月15日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１医薬品の新規薬価収載等について
+２最適使用推進ガイドラインについて(報告)
+３最適使用推進ガイドラインについて
+４費用対効果評価の結果を踏まえた薬価の見直しについて
+５ＤＰＣにおける高額な新規の医薬品等への対応について
+６在宅自己注射について
+７答申書附帯意見に関する事項の検討の進め方について
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
+  </si>
+  <si>
     <t>第588回</t>
   </si>
   <si>
     <t>2024年4月24日（令和6年4月24日）</t>
   </si>
   <si>
-    <t xml:space="preserve">１   臨床検査の保険適用ついて
-２費用対効果評価専門組織からの報告について
-</t>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
+    <t xml:space="preserve">１臨床検査の保険適用について
+２市費用対効果評価専門組織からの報告について
 </t>
   </si>
   <si>
@@ -640,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -768,16 +784,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -797,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -817,7 +833,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -837,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -857,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -877,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -897,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -917,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -937,7 +953,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -957,7 +973,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -977,7 +993,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -997,7 +1013,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1017,7 +1033,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1037,12 +1053,32 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/output/data.xlsx
+++ b/docs/output/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>回数</t>
   </si>
@@ -32,6 +32,29 @@
   </si>
   <si>
     <t>開催案内</t>
+  </si>
+  <si>
+    <t>第590回</t>
+  </si>
+  <si>
+    <t>2024年6月12日（令和6年6月12日）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１令和６年度診療報酬改定の結果検証に係る特別調査の実施について
+２費用対効果評価専門組織からの報告について
+３最適使用推進ガイドラインについて(報告)
+４公知申請とされた適応外薬の保険適用について
+５ＤＰＣ対象病院の退出に係る報告について
+６先進医療会議からの報告について
+７その他
+</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料
+</t>
   </si>
   <si>
     <t>第589回</t>
@@ -50,13 +73,6 @@
 </t>
   </si>
   <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料
-</t>
-  </si>
-  <si>
     <t>第588回</t>
   </si>
   <si>
@@ -64,7 +80,7 @@
   </si>
   <si>
     <t xml:space="preserve">１臨床検査の保険適用について
-２市費用対効果評価専門組織からの報告について
+２費用対効果評価専門組織からの報告について
 </t>
   </si>
   <si>
@@ -84,6 +100,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">議事録
+</t>
+  </si>
+  <si>
     <t>第586回</t>
   </si>
   <si>
@@ -122,10 +142,6 @@
   <si>
     <t>１答申について
 ２歯科用貴金属随時改定について</t>
-  </si>
-  <si>
-    <t xml:space="preserve">議事録
-</t>
   </si>
   <si>
     <t>第583回</t>
@@ -656,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -764,16 +780,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -784,16 +800,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -813,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -833,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -853,7 +869,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -873,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -893,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -913,7 +929,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -933,7 +949,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -953,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -973,7 +989,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -993,7 +1009,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1013,7 +1029,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1033,7 +1049,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1053,7 +1069,7 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1073,12 +1089,32 @@
         <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
